--- a/test/_Input/1_args_masks.xlsx
+++ b/test/_Input/1_args_masks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\a PSI\Data\Data analysis\XPEEM_toolkit\test\_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EC9C7E-7113-434A-A5FE-35AB4968815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5054C4-78AF-408D-BD93-245B1DA7EBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maskParams" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>Uncy</t>
-  </si>
-  <si>
     <t>OverlayAB_SuCa_042_CO3_All-3 -NCM</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>dsA</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -829,14 +829,14 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>Niox Uncy</v>
+        <v>Niox dsA</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy Niox</v>
+        <v>dsA Niox</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -845,10 +845,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -863,14 +863,14 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>Nired Uncy</v>
+        <v>Nired dsA</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy Nired</v>
+        <v>dsA Nired</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -897,14 +897,14 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>Mnred Uncy</v>
+        <v>Mnred dsA</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy Mnred</v>
+        <v>dsA Mnred</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -913,10 +913,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -931,14 +931,14 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>Mnox Uncy</v>
+        <v>Mnox dsA</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy Mnox</v>
+        <v>dsA Mnox</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -947,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -965,14 +965,14 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>Coox Uncy</v>
+        <v>Coox dsA</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy Coox</v>
+        <v>dsA Coox</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -981,10 +981,10 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -999,14 +999,14 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>Cored Uncy</v>
+        <v>Cored dsA</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy Cored</v>
+        <v>dsA Cored</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1015,10 +1015,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -1033,14 +1033,14 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>All Uncy</v>
+        <v>All dsA</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy All</v>
+        <v>dsA All</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1067,14 +1067,14 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>NCM Uncy</v>
+        <v>NCM dsA</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy NCM</v>
+        <v>dsA NCM</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -1101,14 +1101,14 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C65 Uncy</v>
+        <v>C65 dsA</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C65</v>
+        <v>dsA C65</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -1135,14 +1135,14 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>LPSCl Uncy</v>
+        <v>LPSCl dsA</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy LPSCl</v>
+        <v>dsA LPSCl</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -1151,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
@@ -1169,14 +1169,14 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>LayO Uncy</v>
+        <v>LayO dsA</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy LayO</v>
+        <v>dsA LayO</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -1185,10 +1185,10 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -1203,14 +1203,14 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>CO3 Uncy</v>
+        <v>CO3 dsA</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy CO3</v>
+        <v>dsA CO3</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1219,10 +1219,10 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -1237,14 +1237,14 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>SO3 Uncy</v>
+        <v>SO3 dsA</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy SO3</v>
+        <v>dsA SO3</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1253,13 +1253,13 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
         <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -1271,29 +1271,29 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>A Uncy</v>
+        <v>A dsA</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy A</v>
+        <v>dsA A</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1302,29 +1302,29 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>B Uncy</v>
+        <v>B dsA</v>
       </c>
       <c r="B16" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy B</v>
+        <v>dsA B</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1333,29 +1333,29 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C Uncy</v>
+        <v>C dsA</v>
       </c>
       <c r="B17" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C</v>
+        <v>dsA C</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
         <v>52</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" t="s">
-        <v>53</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1364,29 +1364,29 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C1h Uncy</v>
+        <v>C1h dsA</v>
       </c>
       <c r="B18" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C1h</v>
+        <v>dsA C1h</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1395,29 +1395,29 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C2h Uncy</v>
+        <v>C2h dsA</v>
       </c>
       <c r="B19" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C2h</v>
+        <v>dsA C2h</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1426,29 +1426,29 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C3h Uncy</v>
+        <v>C3h dsA</v>
       </c>
       <c r="B20" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C3h</v>
+        <v>dsA C3h</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -1457,29 +1457,29 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C1l Uncy</v>
+        <v>C1l dsA</v>
       </c>
       <c r="B21" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C1l</v>
+        <v>dsA C1l</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -1488,29 +1488,29 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C2l Uncy</v>
+        <v>C2l dsA</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C2l</v>
+        <v>dsA C2l</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -1519,29 +1519,29 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C3l Uncy</v>
+        <v>C3l dsA</v>
       </c>
       <c r="B23" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C3l</v>
+        <v>dsA C3l</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -1550,29 +1550,29 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C1h Uncy</v>
+        <v>C1h dsA</v>
       </c>
       <c r="B24" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C1h</v>
+        <v>dsA C1h</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1581,29 +1581,29 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C2h Uncy</v>
+        <v>C2h dsA</v>
       </c>
       <c r="B25" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C2h</v>
+        <v>dsA C2h</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -1612,29 +1612,29 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C3h Uncy</v>
+        <v>C3h dsA</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C3h</v>
+        <v>dsA C3h</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1643,29 +1643,29 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C1l Uncy</v>
+        <v>C1l dsA</v>
       </c>
       <c r="B27" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C1l</v>
+        <v>dsA C1l</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -1674,29 +1674,29 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C2l Uncy</v>
+        <v>C2l dsA</v>
       </c>
       <c r="B28" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C2l</v>
+        <v>dsA C2l</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -1705,29 +1705,29 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>C3l Uncy</v>
+        <v>C3l dsA</v>
       </c>
       <c r="B29" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy C3l</v>
+        <v>dsA C3l</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -1736,29 +1736,29 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>nnh Uncy</v>
+        <v>nnh dsA</v>
       </c>
       <c r="B30" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy nnh</v>
+        <v>dsA nnh</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -1767,29 +1767,29 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>nnl Uncy</v>
+        <v>nnl dsA</v>
       </c>
       <c r="B31" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy nnl</v>
+        <v>dsA nnl</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -1798,29 +1798,29 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>rth Uncy</v>
+        <v>rth dsA</v>
       </c>
       <c r="B32" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy rth</v>
+        <v>dsA rth</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -1829,29 +1829,29 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[ROI_name]]," ",Table1[[#This Row],[Sample]])</f>
-        <v>rtl Uncy</v>
+        <v>rtl dsA</v>
       </c>
       <c r="B33" s="3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Sample]]," ",Table1[[#This Row],[ROI_name]])</f>
-        <v>Uncy rtl</v>
+        <v>dsA rtl</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
